--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -5,15 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16305" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,12 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>Поражение цели</t>
+    <t>исходные данные</t>
   </si>
   <si>
-    <t>Исходные данные</t>
+    <t>масса человека</t>
+  </si>
+  <si>
+    <t>коэффициент сопротивления</t>
+  </si>
+  <si>
+    <t>приращение времени</t>
   </si>
   <si>
     <t>ускорение свободного падения</t>
@@ -39,46 +44,19 @@
     <t>начальная скорость</t>
   </si>
   <si>
-    <t>угол бросания в градусах</t>
-  </si>
-  <si>
-    <t>шаг измерения времени</t>
-  </si>
-  <si>
-    <t>координаты цели</t>
-  </si>
-  <si>
-    <t>точность падения</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>расчет</t>
   </si>
   <si>
-    <t>начальная горизонтальная скорость</t>
+    <t>время</t>
   </si>
   <si>
-    <t>начальная вертикальная скорость</t>
+    <t>скорость</t>
   </si>
   <si>
-    <t>расстояние до цели</t>
+    <t>расстояние</t>
   </si>
   <si>
-    <t>горизонтальное</t>
-  </si>
-  <si>
-    <t>вертикальное</t>
-  </si>
-  <si>
-    <t>полное</t>
-  </si>
-  <si>
-    <t>время</t>
+    <t>ускорение</t>
   </si>
 </sst>
 </file>
@@ -115,14 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -188,14 +161,25 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>скорость</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -204,120 +188,312 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
-              <c:f>Лист2!$B$16:$B$28</c:f>
+              <c:f>Лист1!$A$9:$A$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2766081771559672</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.5532163543119344</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.8298245314679029</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.106432708623869</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.383040885779835</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.659649062935802</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.936257240091766</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.212865417247734</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.489473594403698</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>32.766081771559662</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>36.042689948715633</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>39.319298125871605</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Лист2!$C$16:$C$28</c:f>
+              <c:f>Лист1!$B$9:$B$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.098105745404184</c:v>
+                  <c:v>4.9050000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8038114908083682</c:v>
+                  <c:v>9.3588932812500012</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.117117236212553</c:v>
+                  <c:v>12.621601716565756</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0380229816167361</c:v>
+                  <c:v>14.539636156097963</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.5665287270209207</c:v>
+                  <c:v>15.48086703950338</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.702634472425105</c:v>
+                  <c:v>15.892293708976215</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.4463402178292899</c:v>
+                  <c:v>16.06169997149437</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.7976459632334745</c:v>
+                  <c:v>16.129608609476204</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.756551708637657</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.3230574540418445</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.4971631994460282</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.72113105514979026</c:v>
+                  <c:v>16.156528473947038</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-585B-45D6-9E07-2A128AD347B3}"/>
+              <c16:uniqueId val="{00000000-B019-4A23-B1A6-6EA264643E6D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>расстояние</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$9:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$9:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2262500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7922233203125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.28734706976644</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.07765653793237</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.582782336832704</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.426072523952605</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.414570944070249</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.462398089312892</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56.533932360168706</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B019-4A23-B1A6-6EA264643E6D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ускорение</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$9:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$9:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>9.81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9077865625000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5254168706315099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8360688790644142</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8824617668108328</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82285333894567003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33881252503631387</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13581727596366733</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3839728941667886E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1247037645197864E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B019-4A23-B1A6-6EA264643E6D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -329,30 +505,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="316211759"/>
-        <c:axId val="316202191"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="316211759"/>
+        <c:smooth val="0"/>
+        <c:axId val="1731108895"/>
+        <c:axId val="1731110975"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1731108895"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -362,8 +525,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -390,12 +553,15 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316202191"/>
+        <c:crossAx val="1731110975"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="316202191"/>
+        <c:axId val="1731110975"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -421,11 +587,724 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1731108895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>скорость</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$9:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$9:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9050000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3588932812500012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.621601716565756</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.539636156097963</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.48086703950338</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.892293708976215</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.06169997149437</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.129608609476204</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.156528473947038</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.167151992769636</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.171336926069976</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.17298433901108</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.173632668450498</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.173887786688574</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.173988171631191</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16.174027670829961</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.174043212765461</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.174049328107877</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16.174051734331623</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16.174052681115953</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0433-4EC9-A404-AEE409E25067}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>расстояние</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$9:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$9:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2262500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7922233203125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.28734706976644</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.07765653793237</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.582782336832704</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.426072523952605</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40.414570944070249</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.462398089312892</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56.533932360168706</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64.614852476847886</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>72.699474706557794</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>80.785555022828063</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>88.872209274693461</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>96.959089388478233</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>105.04605837805818</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>113.13306233867345</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>121.22008005957231</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>129.30710319479064</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>137.39412846040051</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>145.4811545642624</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0433-4EC9-A404-AEE409E25067}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ускорение</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$9:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$9:$D$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>9.81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9077865625000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5254168706315099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8360688790644142</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8824617668108328</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82285333894567003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.33881252503631387</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13581727596366733</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3839728941667886E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1247037645197864E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.369866600681064E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2948258822109722E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2966588788376754E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.1023647615622281E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0076988523243244E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.8998397539109533E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1083871002479668E-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2230684832914562E-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.8124474947286444E-6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8935686583176903E-6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.4506822045350418E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0433-4EC9-A404-AEE409E25067}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1663130335"/>
+        <c:axId val="1663131999"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1663130335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -452,9 +1331,68 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316211759"/>
+        <c:crossAx val="1663131999"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1663131999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1663130335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -464,6 +1402,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -541,8 +1511,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -569,8 +1579,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -650,6 +1660,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -660,6 +1675,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -671,7 +1691,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -691,6 +1711,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -703,10 +1726,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -746,23 +1769,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -867,8 +1889,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1000,24 +2022,417 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1027,17 +2442,128 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1061,20 +2587,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1084,6 +2610,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1355,1002 +2911,457 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="E1">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="F1">
+      <c r="C5" s="1">
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="H1">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="I1">
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="J1">
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="K1">
+      <c r="D8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <f>$C$6</f>
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f>$C$5-$C$3*B9^2/$C$2</f>
+        <v>9.81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f>A9+$C$4</f>
+        <v>0.5</v>
+      </c>
+      <c r="B10" s="1">
+        <f>B9+D9*$C$4</f>
+        <v>4.9050000000000002</v>
+      </c>
+      <c r="C10" s="1">
+        <f>C9+B9*$C$4+D9*$C$4^2/2</f>
+        <v>1.2262500000000001</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" ref="D10:D29" si="0">$C$5-$C$3*B10^2/$C$2</f>
+        <v>8.9077865625000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <f t="shared" ref="A11:A29" si="1">A10+$C$4</f>
         <v>1</v>
       </c>
-      <c r="B2">
-        <f>$A2*B$1</f>
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <f t="shared" ref="C2:K11" si="0">$A2*C$1</f>
+      <c r="B11" s="1">
+        <f t="shared" ref="B11:B29" si="2">B10+D10*$C$4</f>
+        <v>9.3588932812500012</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" ref="C11:C29" si="3">C10+B10*$C$4+D10*$C$4^2/2</f>
+        <v>4.7922233203125</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>6.5254168706315099</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="2"/>
+        <v>12.621601716565756</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="3"/>
+        <v>10.28734706976644</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>3.8360688790644142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D2">
+      <c r="B13" s="1">
+        <f t="shared" si="2"/>
+        <v>14.539636156097963</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="3"/>
+        <v>17.07765653793237</v>
+      </c>
+      <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E2">
+        <v>1.8824617668108328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="2"/>
+        <v>15.48086703950338</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="3"/>
+        <v>24.582782336832704</v>
+      </c>
+      <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="I2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="J2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="K2">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0.82285333894567003</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B11" si="1">$A3*B$1</f>
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H3">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="I3">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="J3">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="K3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="B15" s="1">
+        <f t="shared" si="2"/>
+        <v>15.892293708976215</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="3"/>
+        <v>32.426072523952605</v>
+      </c>
+      <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D4">
+        <v>0.33881252503631387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="2"/>
+        <v>16.06169997149437</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="3"/>
+        <v>40.414570944070249</v>
+      </c>
+      <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0.13581727596366733</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="B17" s="1">
+        <f t="shared" si="2"/>
+        <v>16.129608609476204</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="3"/>
+        <v>48.462398089312892</v>
+      </c>
+      <c r="D17" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D5">
+        <v>5.3839728941667886E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="2"/>
+        <v>16.156528473947038</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="3"/>
+        <v>56.533932360168706</v>
+      </c>
+      <c r="D18" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <v>2.1247037645197864E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="B19" s="1">
+        <f t="shared" si="2"/>
+        <v>16.167151992769636</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="3"/>
+        <v>64.614852476847886</v>
+      </c>
+      <c r="D19" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D6">
+        <v>8.369866600681064E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="2"/>
+        <v>16.171336926069976</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="3"/>
+        <v>72.699474706557794</v>
+      </c>
+      <c r="D20" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <v>3.2948258822109722E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="B21" s="1">
+        <f t="shared" si="2"/>
+        <v>16.17298433901108</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="3"/>
+        <v>80.785555022828063</v>
+      </c>
+      <c r="D21" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="D7">
+        <v>1.2966588788376754E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="2"/>
+        <v>16.173632668450498</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="3"/>
+        <v>88.872209274693461</v>
+      </c>
+      <c r="D22" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <v>5.1023647615622281E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="B23" s="1">
+        <f t="shared" si="2"/>
+        <v>16.173887786688574</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="3"/>
+        <v>96.959089388478233</v>
+      </c>
+      <c r="D23" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="D8">
+        <v>2.0076988523243244E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="2"/>
+        <v>16.173988171631191</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="3"/>
+        <v>105.04605837805818</v>
+      </c>
+      <c r="D24" s="1">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="0"/>
-        <v>70</v>
+        <v>7.8998397539109533E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="B25" s="1">
+        <f t="shared" si="2"/>
+        <v>16.174027670829961</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="3"/>
+        <v>113.13306233867345</v>
+      </c>
+      <c r="D25" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="D9">
+        <v>3.1083871002479668E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="2"/>
+        <v>16.174043212765461</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="3"/>
+        <v>121.22008005957231</v>
+      </c>
+      <c r="D26" s="1">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <v>1.2230684832914562E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="B27" s="1">
+        <f t="shared" si="2"/>
+        <v>16.174049328107877</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="3"/>
+        <v>129.30710319479064</v>
+      </c>
+      <c r="D27" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="D10">
+        <v>4.8124474947286444E-6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="2"/>
+        <v>16.174051734331623</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="3"/>
+        <v>137.39412846040051</v>
+      </c>
+      <c r="D28" s="1">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <v>1.8935686583176903E-6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="B29" s="1">
+        <f t="shared" si="2"/>
+        <v>16.174052681115953</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="3"/>
+        <v>145.4811545642624</v>
+      </c>
+      <c r="D29" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <v>7.4506822045350418E-7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:C28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4">
-        <v>9.81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="D10">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12">
-        <f>$D$5*COS($D$6*PI()/180)</f>
-        <v>16.383040885779835</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13">
-        <f>$D$5*SIN($D$6*PI()/180)</f>
-        <v>11.471528727020921</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <f>$D$12*A16</f>
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <f>$D$13*A16-$D$4*A16*A16/2</f>
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <f>B16-$D$8</f>
-        <v>-10</v>
-      </c>
-      <c r="E16">
-        <f>C16-$D$9</f>
-        <v>-7</v>
-      </c>
-      <c r="F16">
-        <f>SQRT(D16*D16+E16*E16)</f>
-        <v>12.206555615733702</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f>A16+$D$7</f>
-        <v>0.2</v>
-      </c>
-      <c r="B17">
-        <f t="shared" ref="B17:B27" si="0">$D$12*A17</f>
-        <v>3.2766081771559672</v>
-      </c>
-      <c r="C17">
-        <f t="shared" ref="C17:C27" si="1">$D$13*A17-$D$4*A17*A17/2</f>
-        <v>2.098105745404184</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ref="D17:D27" si="2">B17-$D$8</f>
-        <v>-6.7233918228440324</v>
-      </c>
-      <c r="E17">
-        <f t="shared" ref="E17:E27" si="3">C17-$D$9</f>
-        <v>-4.901894254595816</v>
-      </c>
-      <c r="F17">
-        <f t="shared" ref="F17:F27" si="4">SQRT(D17*D17+E17*E17)</f>
-        <v>8.3206108481724748</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" ref="A18:A21" si="5">A17+$D$7</f>
-        <v>0.4</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>6.5532163543119344</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="1"/>
-        <v>3.8038114908083682</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="2"/>
-        <v>-3.4467836456880656</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="3"/>
-        <v>-3.1961885091916318</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="4"/>
-        <v>4.7006317114268104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" si="5"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>9.8298245314679029</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="1"/>
-        <v>5.117117236212553</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="2"/>
-        <v>-0.17017546853209709</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="3"/>
-        <v>-1.882882763787447</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="4"/>
-        <v>1.890557376081978</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f t="shared" si="5"/>
-        <v>0.8</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>13.106432708623869</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="1"/>
-        <v>6.0380229816167361</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="2"/>
-        <v>3.1064327086238688</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="3"/>
-        <v>-0.96197701838326388</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="4"/>
-        <v>3.2519723180103766</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>16.383040885779835</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="1"/>
-        <v>6.5665287270209207</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="2"/>
-        <v>6.3830408857798346</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="3"/>
-        <v>-0.43347127297907928</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="4"/>
-        <v>6.397742437300451</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f t="shared" ref="A22:A28" si="6">A21+$D$7</f>
-        <v>1.2</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>19.659649062935802</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="1"/>
-        <v>6.702634472425105</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="2"/>
-        <v>9.6596490629358023</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="3"/>
-        <v>-0.29736552757489498</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="4"/>
-        <v>9.664225073748355</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" si="6"/>
-        <v>1.4</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>22.936257240091766</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="1"/>
-        <v>6.4463402178292899</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="2"/>
-        <v>12.936257240091766</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="3"/>
-        <v>-0.5536597821707101</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="4"/>
-        <v>12.948099881303818</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" si="6"/>
-        <v>1.5999999999999999</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="0"/>
-        <v>26.212865417247734</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="1"/>
-        <v>5.7976459632334745</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="2"/>
-        <v>16.212865417247734</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="3"/>
-        <v>-1.2023540367665255</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="4"/>
-        <v>16.257387867290252</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f t="shared" si="6"/>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>29.489473594403698</v>
-      </c>
-      <c r="C25">
-        <f t="shared" si="1"/>
-        <v>4.756551708637657</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="2"/>
-        <v>19.489473594403698</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="3"/>
-        <v>-2.243448291362343</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="4"/>
-        <v>19.618171199757015</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f t="shared" si="6"/>
-        <v>1.9999999999999998</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>32.766081771559662</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="1"/>
-        <v>3.3230574540418445</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="2"/>
-        <v>22.766081771559662</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="3"/>
-        <v>-3.6769425459581555</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="4"/>
-        <v>23.061101138402268</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f t="shared" si="6"/>
-        <v>2.1999999999999997</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="0"/>
-        <v>36.042689948715633</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="1"/>
-        <v>1.4971631994460282</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="2"/>
-        <v>26.042689948715633</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="3"/>
-        <v>-5.5028368005539718</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="4"/>
-        <v>26.617718020492767</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f t="shared" si="6"/>
-        <v>2.4</v>
-      </c>
-      <c r="B28">
-        <f>$D$12*A28</f>
-        <v>39.319298125871605</v>
-      </c>
-      <c r="C28">
-        <f>$D$13*A28-$D$4*A28*A28/2</f>
-        <v>-0.72113105514979026</v>
-      </c>
-      <c r="D28">
-        <f>B28-$D$8</f>
-        <v>29.319298125871605</v>
-      </c>
-      <c r="E28">
-        <f>C28-$D$9</f>
-        <v>-7.7211310551497903</v>
-      </c>
-      <c r="F28">
-        <f>SQRT(D28*D28+E28*E28)</f>
-        <v>30.318923255362101</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>